--- a/src/SPARQL query/VICO_top_level_questions_result.xlsx
+++ b/src/SPARQL query/VICO_top_level_questions_result.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuln\Documents\VICO_project\VICO\src\SPARQL query\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub repo\VICO\src\SPARQL query\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="10785" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="10785" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SPARQL query result" sheetId="5" r:id="rId1"/>
@@ -601,7 +601,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -630,7 +630,7 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1282,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="15">
         <v>2</v>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C18" s="1">
         <f>SUM(C2:C17)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1">
         <f>SUM(D2:D17)</f>
@@ -1562,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1593,14 +1593,14 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E18" si="0">SUM(B3:D3)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="C19">
         <f>SUM(C3:C18)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <f>SUM(D3:D18)</f>
